--- a/src/main/resources/data/updateFileName.xlsx
+++ b/src/main/resources/data/updateFileName.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>title</t>
   </si>
@@ -43,16 +43,10 @@
     <t>成功</t>
   </si>
   <si>
-    <t>图分析视图-updateFileName-文件重命名重名</t>
+    <t>图分析视图-updateFileName-文件重命名名称不变</t>
   </si>
   <si>
     <t>{"fileName":"${fileName}","update":"${fileName}"}</t>
-  </si>
-  <si>
-    <t>40014</t>
-  </si>
-  <si>
-    <t>同一分类下已有同名数据集</t>
   </si>
   <si>
     <t>图分析视图-updateFileName-不存在的文件重命名失败</t>
@@ -2032,7 +2026,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
@@ -2089,10 +2083,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
@@ -2101,16 +2095,16 @@
     </row>
     <row r="4" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="8">
         <v>201</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="11">
         <v>1</v>
@@ -2119,16 +2113,16 @@
     </row>
     <row r="5" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="8">
         <v>201</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -2137,16 +2131,16 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="8">
         <v>201</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
@@ -2155,16 +2149,16 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="8">
         <v>201</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -2173,16 +2167,16 @@
     </row>
     <row r="8" ht="20.05" customHeight="1" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="8">
         <v>201</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
@@ -2191,16 +2185,16 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="8">
         <v>201</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>

--- a/src/main/resources/data/updateFileName.xlsx
+++ b/src/main/resources/data/updateFileName.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="7280"/>
+    <workbookView windowWidth="28000" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>title</t>
   </si>
@@ -55,13 +55,16 @@
     <t>{"fileName":"test.json","update":"re.json"}</t>
   </si>
   <si>
+    <t>不存在</t>
+  </si>
+  <si>
+    <t>图分析视图-updateFileName-fileName参数值为空</t>
+  </si>
+  <si>
+    <t>{"fileName":"","update":"re.json"}</t>
+  </si>
+  <si>
     <t>参数错误</t>
-  </si>
-  <si>
-    <t>图分析视图-updateFileName-fileName参数值为空</t>
-  </si>
-  <si>
-    <t>{"fileName":"","update":"re.json"}</t>
   </si>
   <si>
     <t>图分析视图-updateFileName-update参数值为空</t>
@@ -93,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -127,13 +130,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -147,17 +143,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,69 +172,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,16 +205,69 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,13 +279,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -310,19 +313,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,151 +451,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,16 +583,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,21 +618,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -631,6 +625,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,16 +654,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,148 +672,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2026,7 +2029,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="5"/>
@@ -2101,7 +2104,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="8">
-        <v>201</v>
+        <v>418</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>13</v>
@@ -2122,7 +2125,7 @@
         <v>201</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -2131,16 +2134,16 @@
     </row>
     <row r="6" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8">
         <v>201</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" s="11">
         <v>1</v>
@@ -2149,16 +2152,16 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A7" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="8">
         <v>201</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
@@ -2167,16 +2170,16 @@
     </row>
     <row r="8" ht="20.05" customHeight="1" spans="1:6">
       <c r="A8" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8">
         <v>201</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
@@ -2185,16 +2188,16 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="20.05" customHeight="1" spans="1:6">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" s="8">
         <v>201</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E9" s="11">
         <v>1</v>
